--- a/results/cluster_tests.xlsx
+++ b/results/cluster_tests.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lwolu\OneDrive\Documents\College\Siena\Spring 2022 Semester\CSIS 320 - Machine Learning\Projects\Text-Clustering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{392E9412-E7E4-4F0D-A683-8A01299EEF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DC616A-E83F-4884-A9CA-56ADB41F59AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{235DBEE7-B7BE-44C7-9110-4B8B835124E8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{235DBEE7-B7BE-44C7-9110-4B8B835124E8}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
     <sheet name="ARI Analysis" sheetId="2" r:id="rId2"/>
-    <sheet name="Silhouette Analysis" sheetId="3" r:id="rId3"/>
+    <sheet name="Course Analysis" sheetId="5" r:id="rId3"/>
+    <sheet name="Silhouette Analysis" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="198">
   <si>
     <t>Silhouette Testing for Cluster Types using CountVectorizer and TfidfVectorizer</t>
   </si>
@@ -346,6 +347,291 @@
   </si>
   <si>
     <t>Kmeans 15</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>dept 0</t>
+  </si>
+  <si>
+    <t>FREN</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>A survey of the factors and forces that made Modern French</t>
+  </si>
+  <si>
+    <t>RUSS</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A continuation of RUSS-101 </t>
+  </si>
+  <si>
+    <t>ITAL</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A continuation of ITAL 201. </t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>A systematic presentation of the more complex points of French grammar. An application of these grammatical principles will be demonstrated through extensive written exercises, including translations and original compositions.</t>
+  </si>
+  <si>
+    <t>302</t>
+  </si>
+  <si>
+    <t>A continuation of the work of French Conversation I but with stress upon more complicated structures, more extensive and specialized vocabularies. The aim is to prepare the student for increased ease and ability to carry on day-to-day activities in French.</t>
+  </si>
+  <si>
+    <t>GERM</t>
+  </si>
+  <si>
+    <t>A survey of German history and culture from the Period of the Migration to the Age of Frederick the Great.</t>
+  </si>
+  <si>
+    <t>A continuation of FREN-101.</t>
+  </si>
+  <si>
+    <t>Course Details</t>
+  </si>
+  <si>
+    <t>GREK</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An intensive study of Ancient Greek grammar and vocabulary with practice in translating simple Greek. A student must successfully complete GREK-101 in order to register for GREK-102. </t>
+  </si>
+  <si>
+    <t>CLSS</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>A survey of the masterpieces of Latin Literature in English translations from the Republic to the Late Empire, which may include selections from the comedies of Plautus and Terence, the histories of Livy, Sallust, and Tacitus, the commentaries of Julius Caesar, the poetry of Catullus, Horace, Vergil and Ovid, the biographies of Suetonius and Tacitus, the speeches and philosophical works of Cicero, Lucretius' De Rerum Natura, the comic novels of Petronius and Apuleius, and the Confessions of Augustine. (Same as ENGL-055)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A continuation of FREN-201 </t>
+  </si>
+  <si>
+    <t>LATN</t>
+  </si>
+  <si>
+    <t>495</t>
+  </si>
+  <si>
+    <t>Qualified students are invited to pursue a special project in Latin of their own choosing, with the approval of the Department.</t>
+  </si>
+  <si>
+    <t>A continuation of RUSS-201.</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>The course examines representative works from Proust to the present day and provides discussion of each author's ideas of basic modern problems in English. No knowledge of French language is required. May not be used as part of French major or minor.</t>
+  </si>
+  <si>
+    <t>Qualified students are invited to pursue a special project in Greek of their own choosing, with the approval of the Department Head.</t>
+  </si>
+  <si>
+    <t>SPAN</t>
+  </si>
+  <si>
+    <t>A study of selected works of Hispanic drama both classical and modern.</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To increase proficiency in speaking Italian. </t>
+  </si>
+  <si>
+    <t>370</t>
+  </si>
+  <si>
+    <t>This course constitutes an introduction to French Literature through the medium of the Drama.</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The study of Russian grammar and vocabulary is continued. At this level both spoken language and reading are stressed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A continuation of GREK-101. </t>
+  </si>
+  <si>
+    <t>A continuation of SPAN-301.</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>Advanced oral work through class discussion of selected topics and creation of dialogues. Intensive pronunciation work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A continuation of SPAN-101. </t>
+  </si>
+  <si>
+    <t>430</t>
+  </si>
+  <si>
+    <t>A study of Spanish literature from the Generation of '98 to the contemporary period.</t>
+  </si>
+  <si>
+    <t>AMSL</t>
+  </si>
+  <si>
+    <t>A continuation of AMSL 101, an introduction to visualgestural language. Contains the comprehensive numbers, classifiers and grammatical structures. The skill development of conversation and storytelling is emphasized.</t>
+  </si>
+  <si>
+    <t>Continuation of RUSS-301.</t>
+  </si>
+  <si>
+    <t>The study of French pronunciation, vocabulary, grammar, and</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>A study of selected contemporary French language films (subtitled) with focus on the films' artistic expression and psychological, social, historical and cultural content. Course taught in English. No prerequisites</t>
+  </si>
+  <si>
+    <t>Qualified students are invited to pursue a special project in Classics of their own choosing, and with the approval of the Department.</t>
+  </si>
+  <si>
+    <t>An introduction to visual-gestural language. Contains the manuel alphabet, basic numbers, sign vocabulary, aspects of deaf culture and history, and basic conversational skills with American Sign Language. (ASL). No prerequisites.</t>
+  </si>
+  <si>
+    <t>A thorough review of the structures of the French language, supplemented by selected readings. Emphasis will be placed</t>
+  </si>
+  <si>
+    <t>341</t>
+  </si>
+  <si>
+    <t>Continuation of GERM --340.</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>A study in English of the Greco-Roman myths that deal with the heroes and heroines of the Greek royal houses, of the Trojan War, of the journey home; the legends involving Theseus, Heracles, Perseus, and Jason; certain local traditions of myths; the transformation of the Greek heroic tradition among the Romans, in particular that of the Trojan Aeneas; theoretical perspectives will be used to understand ancient conceptions of heroism and how they have influenced the later tradition.</t>
+  </si>
+  <si>
+    <t>Intensive review of grammar and syntax, supplemented by A continuation of GERM-201</t>
+  </si>
+  <si>
+    <t>This course consists of reading selections from representative authors of Classical Greek, for students who have completed elementary Greek.</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>A survey of German history and culture from the Age of the Revolution to the Weimar Republic.</t>
+  </si>
+  <si>
+    <t>This course examines representative dramas from Moratin to Benavente. Plays selected illustrate all the important literary movements of the past century.</t>
+  </si>
+  <si>
+    <t>402</t>
+  </si>
+  <si>
+    <t>An introduction to French writers of the nineteenth and twentieth centuries. Included are examples of short story, poetry, and drama.</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>A general survey of Latin American literature from its origins to the contemporary period.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A continuation of ITAL 101. </t>
+  </si>
+  <si>
+    <t>340</t>
+  </si>
+  <si>
+    <t>Selected German Readings offered as a tutorial for advanced students of German.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A continuation of LATN-101. </t>
+  </si>
+  <si>
+    <t>Emphasis placed on vocabulary building and oral proficiency. Continuation of GERM-301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A continuation of SPAN-201 </t>
+  </si>
+  <si>
+    <t>An introductory study of Russian phonetics, pronunciation, vocabulary, and grammar. Stress upon the spoken language,</t>
+  </si>
+  <si>
+    <t>401</t>
+  </si>
+  <si>
+    <t>This course demonstrates the evolution of major themes in French literature in all genres from their origins to the beginnings of modern times.</t>
+  </si>
+  <si>
+    <t>440</t>
+  </si>
+  <si>
+    <t>A chronological study of the development of the drama from Cervantes to Calderon.</t>
+  </si>
+  <si>
+    <t>A survey of Spanish literature.</t>
+  </si>
+  <si>
+    <t>Continuation of RUSS-401 or equivalent.</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>A study of selected masterworks of French literature from its medieval beginnings through the twentieth century, including novels, short stories, drama and poetry, read in English translation. No knowledge of French language is required. May not be used at part of French major or minor.</t>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
+    <t>This course examines representative novels from Alarcon to Galdos. Works chosen demonstrate the important literary currents of the past century.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A continuation of ITAL 301 with emphasis on the development of writing skills. </t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>A survey of the masterpieces of Greek literature in English translations from the 8th century B.C. to the Roman period, which may include selections from the Homer's Iliad and Odyssey, Hesiod's Theogony and Works and Days, the tragedies of Aeschylus, Sophocles, and Euripides, the histories of Herodotus and Thucydides, the comedies of Aristophanes and Menander, the poetry of Archilochus, Sappho, Pindar, Callimachus, and Theocritus, the works of Plato and Aristotle, the oratory of Demosthenes and Lysias, the works of the New Testament, and the biographies of Plutarch. (Same as ENGL-051)</t>
+  </si>
+  <si>
+    <t>Introduction to elementary German grammer, syntax, and vocabulary. Designed for students with no previous knowledge of German.</t>
+  </si>
+  <si>
+    <t>The study of Italian pronunciation, vocabulary, grammar</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>A study in English of the masterpieces of Aeschylus, Sophocles, and Euripides, through a close reading of individual works of the tragedians and the fruits of modern scholarship. Among the subjects treated will be the history and origins of Greek tragedy, the physical space of the ancient theater, aspects of performance (the tragic mask, acting techniques, etc.), the location of individual play within their historical context, and the later influence of</t>
+  </si>
+  <si>
+    <t>A study of selected masterpieces of German, Austrian, and Swiss Literature including novels, short stories, drama, and poetry, read in English translation.</t>
   </si>
 </sst>
 </file>
@@ -3450,8 +3736,8 @@
   </sheetPr>
   <dimension ref="A1:V1315"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U40" sqref="U40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3564,12 +3850,12 @@
       <c r="D4">
         <v>19</v>
       </c>
-      <c r="F4" s="24">
-        <v>1</v>
+      <c r="F4">
+        <v>0</v>
       </c>
       <c r="G4">
         <f>COUNTIF($D$2:$D$1315,F4)</f>
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -3579,37 +3865,37 @@
         <v>82</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="M4">
-        <f>COUNTIFS($C$2:$C$1315,5,$D$2:$D$1315,$I4)</f>
+        <f>COUNTIFS($C$2:$C$1315,5,$D$2:$D$1315,$F4)</f>
         <v>3</v>
       </c>
       <c r="N4" s="5">
-        <f>M4/$M$38</f>
-        <v>8.4745762711864406E-3</v>
+        <f>M4/$M$39</f>
+        <v>8.241758241758242E-3</v>
       </c>
       <c r="P4" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="Q4">
-        <f>COUNTIFS($C$2:$C$1315,15,$D$2:$D$1315,$I4)</f>
+        <f>COUNTIFS($C$2:$C$1315,15,$D$2:$D$1315,$F4)</f>
         <v>1</v>
       </c>
       <c r="R4" s="5">
-        <f>Q4/$Q$38</f>
-        <v>0.01</v>
+        <f>Q4/$Q$39</f>
+        <v>9.7087378640776691E-3</v>
       </c>
       <c r="T4" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="U4">
-        <f>COUNTIFS($C$2:$C$1315,25,$D$2:$D$1315,$I4)</f>
+        <f>COUNTIFS($C$2:$C$1315,25,$D$2:$D$1315,$F4)</f>
         <v>1</v>
       </c>
       <c r="V4" s="5">
-        <f>U4/$U$38</f>
-        <v>7.874015748031496E-3</v>
+        <f>U4/$U$39</f>
+        <v>7.6335877862595417E-3</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -3622,12 +3908,12 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>2</v>
+      <c r="F5" s="24">
+        <v>1</v>
       </c>
       <c r="G5">
         <f>COUNTIF($D$2:$D$1315,F5)</f>
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -3637,37 +3923,37 @@
         <v>85</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M5">
-        <f t="shared" ref="M5:M36" si="0">COUNTIFS($C$2:$C$1315,5,$D$2:$D$1315,$I5)</f>
+        <f>COUNTIFS($C$2:$C$1315,5,$D$2:$D$1315,$F5)</f>
         <v>21</v>
       </c>
       <c r="N5" s="5">
-        <f t="shared" ref="N5:N36" si="1">M5/$M$38</f>
-        <v>5.9322033898305086E-2</v>
+        <f>M5/$M$39</f>
+        <v>5.7692307692307696E-2</v>
       </c>
       <c r="P5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q5">
-        <f t="shared" ref="Q5:Q36" si="2">COUNTIFS($C$2:$C$1315,15,$D$2:$D$1315,$I5)</f>
+        <f>COUNTIFS($C$2:$C$1315,15,$D$2:$D$1315,$F5)</f>
         <v>1</v>
       </c>
       <c r="R5" s="5">
-        <f t="shared" ref="R5:R36" si="3">Q5/$Q$38</f>
-        <v>0.01</v>
+        <f>Q5/$Q$39</f>
+        <v>9.7087378640776691E-3</v>
       </c>
       <c r="T5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U5">
-        <f t="shared" ref="Q5:U36" si="4">COUNTIFS($C$2:$C$1315,25,$D$2:$D$1315,$I5)</f>
+        <f>COUNTIFS($C$2:$C$1315,25,$D$2:$D$1315,$F5)</f>
         <v>8</v>
       </c>
       <c r="V5" s="5">
-        <f t="shared" ref="V5:V36" si="5">U5/$U$38</f>
-        <v>6.2992125984251968E-2</v>
+        <f>U5/$U$39</f>
+        <v>6.1068702290076333E-2</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -3681,51 +3967,51 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <f>COUNTIF($D$2:$D$1315,F6)</f>
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I6">
         <v>2</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J6:J36" si="6">COUNTIF($C$2:$C$1315,I6)</f>
+        <f t="shared" ref="J6:J37" si="0">COUNTIF($C$2:$C$1315,I6)</f>
         <v>92</v>
       </c>
       <c r="L6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M6">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($C$2:$C$1315,5,$D$2:$D$1315,$F6)</f>
         <v>18</v>
       </c>
       <c r="N6" s="5">
-        <f t="shared" si="1"/>
-        <v>5.0847457627118647E-2</v>
+        <f>M6/$M$39</f>
+        <v>4.9450549450549448E-2</v>
       </c>
       <c r="P6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($C$2:$C$1315,15,$D$2:$D$1315,$F6)</f>
         <v>3</v>
       </c>
       <c r="R6" s="5">
-        <f t="shared" si="3"/>
-        <v>0.03</v>
+        <f>Q6/$Q$39</f>
+        <v>2.9126213592233011E-2</v>
       </c>
       <c r="T6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="U6">
-        <f t="shared" si="4"/>
+        <f>COUNTIFS($C$2:$C$1315,25,$D$2:$D$1315,$F6)</f>
         <v>3</v>
       </c>
       <c r="V6" s="5">
-        <f t="shared" si="5"/>
-        <v>2.3622047244094488E-2</v>
+        <f>U6/$U$39</f>
+        <v>2.2900763358778626E-2</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -3739,50 +4025,50 @@
         <v>23</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G7">
         <f>COUNTIF($D$2:$D$1315,F7)</f>
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>3</v>
       </c>
       <c r="J7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="L7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M7">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($C$2:$C$1315,5,$D$2:$D$1315,$F7)</f>
         <v>0</v>
       </c>
       <c r="N7" s="5">
-        <f t="shared" si="1"/>
+        <f>M7/$M$39</f>
         <v>0</v>
       </c>
       <c r="P7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($C$2:$C$1315,15,$D$2:$D$1315,$F7)</f>
         <v>0</v>
       </c>
       <c r="R7" s="5">
-        <f t="shared" si="3"/>
+        <f>Q7/$Q$39</f>
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U7">
-        <f t="shared" si="4"/>
+        <f>COUNTIFS($C$2:$C$1315,25,$D$2:$D$1315,$F7)</f>
         <v>0</v>
       </c>
       <c r="V7" s="5">
-        <f t="shared" si="5"/>
+        <f>U7/$U$39</f>
         <v>0</v>
       </c>
     </row>
@@ -3797,51 +4083,51 @@
         <v>5</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8">
         <f>COUNTIF($D$2:$D$1315,F8)</f>
-        <v>131</v>
+        <v>34</v>
       </c>
       <c r="I8">
         <v>4</v>
       </c>
       <c r="J8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="L8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M8">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($C$2:$C$1315,5,$D$2:$D$1315,$F8)</f>
         <v>22</v>
       </c>
       <c r="N8" s="5">
-        <f t="shared" si="1"/>
-        <v>6.2146892655367235E-2</v>
+        <f>M8/$M$39</f>
+        <v>6.043956043956044E-2</v>
       </c>
       <c r="P8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($C$2:$C$1315,15,$D$2:$D$1315,$F8)</f>
         <v>1</v>
       </c>
       <c r="R8" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01</v>
+        <f>Q8/$Q$39</f>
+        <v>9.7087378640776691E-3</v>
       </c>
       <c r="T8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="U8">
-        <f t="shared" si="4"/>
+        <f>COUNTIFS($C$2:$C$1315,25,$D$2:$D$1315,$F8)</f>
         <v>1</v>
       </c>
       <c r="V8" s="5">
-        <f t="shared" si="5"/>
-        <v>7.874015748031496E-3</v>
+        <f>U8/$U$39</f>
+        <v>7.6335877862595417E-3</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -3855,51 +4141,51 @@
         <v>7</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G9">
         <f>COUNTIF($D$2:$D$1315,F9)</f>
-        <v>25</v>
+        <v>131</v>
       </c>
       <c r="I9">
         <v>5</v>
       </c>
       <c r="J9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>364</v>
       </c>
       <c r="L9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M9">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($C$2:$C$1315,5,$D$2:$D$1315,$F9)</f>
         <v>57</v>
       </c>
       <c r="N9" s="5">
-        <f t="shared" si="1"/>
-        <v>0.16101694915254236</v>
+        <f>M9/$M$39</f>
+        <v>0.15659340659340659</v>
       </c>
       <c r="P9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($C$2:$C$1315,15,$D$2:$D$1315,$F9)</f>
         <v>10</v>
       </c>
       <c r="R9" s="5">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f>Q9/$Q$39</f>
+        <v>9.7087378640776698E-2</v>
       </c>
       <c r="T9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="U9">
-        <f t="shared" si="4"/>
+        <f>COUNTIFS($C$2:$C$1315,25,$D$2:$D$1315,$F9)</f>
         <v>12</v>
       </c>
       <c r="V9" s="5">
-        <f t="shared" si="5"/>
-        <v>9.4488188976377951E-2</v>
+        <f>U9/$U$39</f>
+        <v>9.1603053435114504E-2</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -3913,51 +4199,51 @@
         <v>6</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <f>COUNTIF($D$2:$D$1315,F10)</f>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I10">
         <v>6</v>
       </c>
       <c r="J10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="L10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M10">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($C$2:$C$1315,5,$D$2:$D$1315,$F10)</f>
         <v>2</v>
       </c>
       <c r="N10" s="5">
-        <f t="shared" si="1"/>
-        <v>5.6497175141242938E-3</v>
+        <f>M10/$M$39</f>
+        <v>5.4945054945054949E-3</v>
       </c>
       <c r="P10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($C$2:$C$1315,15,$D$2:$D$1315,$F10)</f>
         <v>2</v>
       </c>
       <c r="R10" s="5">
-        <f t="shared" si="3"/>
-        <v>0.02</v>
+        <f>Q10/$Q$39</f>
+        <v>1.9417475728155338E-2</v>
       </c>
       <c r="T10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="U10">
-        <f t="shared" si="4"/>
+        <f>COUNTIFS($C$2:$C$1315,25,$D$2:$D$1315,$F10)</f>
         <v>2</v>
       </c>
       <c r="V10" s="5">
-        <f t="shared" si="5"/>
-        <v>1.5748031496062992E-2</v>
+        <f>U10/$U$39</f>
+        <v>1.5267175572519083E-2</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -3971,51 +4257,51 @@
         <v>5</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11">
         <f>COUNTIF($D$2:$D$1315,F11)</f>
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I11">
         <v>7</v>
       </c>
       <c r="J11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="L11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M11">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($C$2:$C$1315,5,$D$2:$D$1315,$F11)</f>
         <v>6</v>
       </c>
       <c r="N11" s="5">
-        <f t="shared" si="1"/>
-        <v>1.6949152542372881E-2</v>
+        <f>M11/$M$39</f>
+        <v>1.6483516483516484E-2</v>
       </c>
       <c r="P11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($C$2:$C$1315,15,$D$2:$D$1315,$F11)</f>
         <v>2</v>
       </c>
       <c r="R11" s="5">
-        <f t="shared" si="3"/>
-        <v>0.02</v>
+        <f>Q11/$Q$39</f>
+        <v>1.9417475728155338E-2</v>
       </c>
       <c r="T11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U11">
-        <f t="shared" si="4"/>
+        <f>COUNTIFS($C$2:$C$1315,25,$D$2:$D$1315,$F11)</f>
         <v>1</v>
       </c>
       <c r="V11" s="5">
-        <f t="shared" si="5"/>
-        <v>7.874015748031496E-3</v>
+        <f>U11/$U$39</f>
+        <v>7.6335877862595417E-3</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -4029,51 +4315,51 @@
         <v>7</v>
       </c>
       <c r="F12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G12">
         <f>COUNTIF($D$2:$D$1315,F12)</f>
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I12">
         <v>8</v>
       </c>
       <c r="J12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="L12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M12">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($C$2:$C$1315,5,$D$2:$D$1315,$F12)</f>
         <v>1</v>
       </c>
       <c r="N12" s="5">
-        <f t="shared" si="1"/>
-        <v>2.8248587570621469E-3</v>
+        <f>M12/$M$39</f>
+        <v>2.7472527472527475E-3</v>
       </c>
       <c r="P12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($C$2:$C$1315,15,$D$2:$D$1315,$F12)</f>
         <v>0</v>
       </c>
       <c r="R12" s="5">
-        <f t="shared" si="3"/>
+        <f>Q12/$Q$39</f>
         <v>0</v>
       </c>
       <c r="T12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="U12">
-        <f t="shared" si="4"/>
+        <f>COUNTIFS($C$2:$C$1315,25,$D$2:$D$1315,$F12)</f>
         <v>5</v>
       </c>
       <c r="V12" s="5">
-        <f t="shared" si="5"/>
-        <v>3.937007874015748E-2</v>
+        <f>U12/$U$39</f>
+        <v>3.8167938931297711E-2</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -4087,51 +4373,51 @@
         <v>18</v>
       </c>
       <c r="F13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G13">
         <f>COUNTIF($D$2:$D$1315,F13)</f>
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="I13">
         <v>9</v>
       </c>
       <c r="J13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="L13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M13">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($C$2:$C$1315,5,$D$2:$D$1315,$F13)</f>
         <v>7</v>
       </c>
       <c r="N13" s="5">
-        <f t="shared" si="1"/>
-        <v>1.977401129943503E-2</v>
+        <f>M13/$M$39</f>
+        <v>1.9230769230769232E-2</v>
       </c>
       <c r="P13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($C$2:$C$1315,15,$D$2:$D$1315,$F13)</f>
         <v>5</v>
       </c>
       <c r="R13" s="5">
-        <f t="shared" si="3"/>
-        <v>0.05</v>
+        <f>Q13/$Q$39</f>
+        <v>4.8543689320388349E-2</v>
       </c>
       <c r="T13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U13">
-        <f t="shared" si="4"/>
+        <f>COUNTIFS($C$2:$C$1315,25,$D$2:$D$1315,$F13)</f>
         <v>2</v>
       </c>
       <c r="V13" s="5">
-        <f t="shared" si="5"/>
-        <v>1.5748031496062992E-2</v>
+        <f>U13/$U$39</f>
+        <v>1.5267175572519083E-2</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -4145,51 +4431,51 @@
         <v>5</v>
       </c>
       <c r="F14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G14">
         <f>COUNTIF($D$2:$D$1315,F14)</f>
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I14">
         <v>10</v>
       </c>
       <c r="J14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="L14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M14">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($C$2:$C$1315,5,$D$2:$D$1315,$F14)</f>
         <v>18</v>
       </c>
       <c r="N14" s="5">
-        <f t="shared" si="1"/>
-        <v>5.0847457627118647E-2</v>
+        <f>M14/$M$39</f>
+        <v>4.9450549450549448E-2</v>
       </c>
       <c r="P14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($C$2:$C$1315,15,$D$2:$D$1315,$F14)</f>
         <v>5</v>
       </c>
       <c r="R14" s="5">
-        <f t="shared" si="3"/>
-        <v>0.05</v>
+        <f>Q14/$Q$39</f>
+        <v>4.8543689320388349E-2</v>
       </c>
       <c r="T14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="U14">
-        <f t="shared" si="4"/>
+        <f>COUNTIFS($C$2:$C$1315,25,$D$2:$D$1315,$F14)</f>
         <v>8</v>
       </c>
       <c r="V14" s="5">
-        <f t="shared" si="5"/>
-        <v>6.2992125984251968E-2</v>
+        <f>U14/$U$39</f>
+        <v>6.1068702290076333E-2</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -4203,51 +4489,51 @@
         <v>13</v>
       </c>
       <c r="F15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G15">
         <f>COUNTIF($D$2:$D$1315,F15)</f>
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I15">
         <v>11</v>
       </c>
       <c r="J15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>98</v>
       </c>
       <c r="L15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="M15">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($C$2:$C$1315,5,$D$2:$D$1315,$F15)</f>
         <v>1</v>
       </c>
       <c r="N15" s="5">
-        <f t="shared" si="1"/>
-        <v>2.8248587570621469E-3</v>
+        <f>M15/$M$39</f>
+        <v>2.7472527472527475E-3</v>
       </c>
       <c r="P15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($C$2:$C$1315,15,$D$2:$D$1315,$F15)</f>
         <v>0</v>
       </c>
       <c r="R15" s="5">
-        <f t="shared" si="3"/>
+        <f>Q15/$Q$39</f>
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="U15">
-        <f t="shared" si="4"/>
+        <f>COUNTIFS($C$2:$C$1315,25,$D$2:$D$1315,$F15)</f>
         <v>3</v>
       </c>
       <c r="V15" s="5">
-        <f t="shared" si="5"/>
-        <v>2.3622047244094488E-2</v>
+        <f>U15/$U$39</f>
+        <v>2.2900763358778626E-2</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -4261,51 +4547,51 @@
         <v>13</v>
       </c>
       <c r="F16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G16">
         <f>COUNTIF($D$2:$D$1315,F16)</f>
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="I16">
         <v>12</v>
       </c>
       <c r="J16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="L16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M16">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($C$2:$C$1315,5,$D$2:$D$1315,$F16)</f>
         <v>8</v>
       </c>
       <c r="N16" s="5">
-        <f t="shared" si="1"/>
-        <v>2.2598870056497175E-2</v>
+        <f>M16/$M$39</f>
+        <v>2.197802197802198E-2</v>
       </c>
       <c r="P16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($C$2:$C$1315,15,$D$2:$D$1315,$F16)</f>
         <v>2</v>
       </c>
       <c r="R16" s="5">
-        <f t="shared" si="3"/>
-        <v>0.02</v>
+        <f>Q16/$Q$39</f>
+        <v>1.9417475728155338E-2</v>
       </c>
       <c r="T16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U16">
-        <f t="shared" si="4"/>
+        <f>COUNTIFS($C$2:$C$1315,25,$D$2:$D$1315,$F16)</f>
         <v>4</v>
       </c>
       <c r="V16" s="5">
-        <f t="shared" si="5"/>
-        <v>3.1496062992125984E-2</v>
+        <f>U16/$U$39</f>
+        <v>3.0534351145038167E-2</v>
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
@@ -4319,51 +4605,51 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G17">
         <f>COUNTIF($D$2:$D$1315,F17)</f>
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="I17">
         <v>13</v>
       </c>
       <c r="J17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="L17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M17">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($C$2:$C$1315,5,$D$2:$D$1315,$F17)</f>
         <v>37</v>
       </c>
       <c r="N17" s="5">
-        <f t="shared" si="1"/>
-        <v>0.10451977401129943</v>
+        <f>M17/$M$39</f>
+        <v>0.10164835164835165</v>
       </c>
       <c r="P17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($C$2:$C$1315,15,$D$2:$D$1315,$F17)</f>
         <v>5</v>
       </c>
       <c r="R17" s="5">
-        <f t="shared" si="3"/>
-        <v>0.05</v>
+        <f>Q17/$Q$39</f>
+        <v>4.8543689320388349E-2</v>
       </c>
       <c r="T17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U17">
-        <f t="shared" si="4"/>
+        <f>COUNTIFS($C$2:$C$1315,25,$D$2:$D$1315,$F17)</f>
         <v>7</v>
       </c>
       <c r="V17" s="5">
-        <f t="shared" si="5"/>
-        <v>5.5118110236220472E-2</v>
+        <f>U17/$U$39</f>
+        <v>5.3435114503816793E-2</v>
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
@@ -4377,51 +4663,51 @@
         <v>10</v>
       </c>
       <c r="F18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G18">
         <f>COUNTIF($D$2:$D$1315,F18)</f>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I18">
         <v>14</v>
       </c>
       <c r="J18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="L18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M18">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($C$2:$C$1315,5,$D$2:$D$1315,$F18)</f>
         <v>3</v>
       </c>
       <c r="N18" s="5">
-        <f t="shared" si="1"/>
-        <v>8.4745762711864406E-3</v>
+        <f>M18/$M$39</f>
+        <v>8.241758241758242E-3</v>
       </c>
       <c r="P18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($C$2:$C$1315,15,$D$2:$D$1315,$F18)</f>
         <v>3</v>
       </c>
       <c r="R18" s="5">
-        <f t="shared" si="3"/>
-        <v>0.03</v>
+        <f>Q18/$Q$39</f>
+        <v>2.9126213592233011E-2</v>
       </c>
       <c r="T18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U18">
-        <f t="shared" si="4"/>
+        <f>COUNTIFS($C$2:$C$1315,25,$D$2:$D$1315,$F18)</f>
         <v>3</v>
       </c>
       <c r="V18" s="5">
-        <f t="shared" si="5"/>
-        <v>2.3622047244094488E-2</v>
+        <f>U18/$U$39</f>
+        <v>2.2900763358778626E-2</v>
       </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
@@ -4435,51 +4721,51 @@
         <v>20</v>
       </c>
       <c r="F19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G19">
         <f>COUNTIF($D$2:$D$1315,F19)</f>
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="I19">
         <v>15</v>
       </c>
       <c r="J19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>103</v>
       </c>
       <c r="L19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M19">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($C$2:$C$1315,5,$D$2:$D$1315,$F19)</f>
         <v>10</v>
       </c>
       <c r="N19" s="5">
-        <f t="shared" si="1"/>
-        <v>2.8248587570621469E-2</v>
+        <f>M19/$M$39</f>
+        <v>2.7472527472527472E-2</v>
       </c>
       <c r="P19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($C$2:$C$1315,15,$D$2:$D$1315,$F19)</f>
         <v>2</v>
       </c>
       <c r="R19" s="5">
-        <f t="shared" si="3"/>
-        <v>0.02</v>
+        <f>Q19/$Q$39</f>
+        <v>1.9417475728155338E-2</v>
       </c>
       <c r="T19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U19">
-        <f t="shared" si="4"/>
+        <f>COUNTIFS($C$2:$C$1315,25,$D$2:$D$1315,$F19)</f>
         <v>1</v>
       </c>
       <c r="V19" s="5">
-        <f t="shared" si="5"/>
-        <v>7.874015748031496E-3</v>
+        <f>U19/$U$39</f>
+        <v>7.6335877862595417E-3</v>
       </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.25">
@@ -4493,51 +4779,51 @@
         <v>13</v>
       </c>
       <c r="F20">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G20">
         <f>COUNTIF($D$2:$D$1315,F20)</f>
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="I20">
         <v>16</v>
       </c>
       <c r="J20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="L20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M20">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($C$2:$C$1315,5,$D$2:$D$1315,$F20)</f>
         <v>19</v>
       </c>
       <c r="N20" s="5">
-        <f t="shared" si="1"/>
-        <v>5.3672316384180789E-2</v>
+        <f>M20/$M$39</f>
+        <v>5.21978021978022E-2</v>
       </c>
       <c r="P20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($C$2:$C$1315,15,$D$2:$D$1315,$F20)</f>
         <v>1</v>
       </c>
       <c r="R20" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01</v>
+        <f>Q20/$Q$39</f>
+        <v>9.7087378640776691E-3</v>
       </c>
       <c r="T20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U20">
-        <f t="shared" si="4"/>
+        <f>COUNTIFS($C$2:$C$1315,25,$D$2:$D$1315,$F20)</f>
         <v>4</v>
       </c>
       <c r="V20" s="5">
-        <f t="shared" si="5"/>
-        <v>3.1496062992125984E-2</v>
+        <f>U20/$U$39</f>
+        <v>3.0534351145038167E-2</v>
       </c>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.25">
@@ -4551,51 +4837,51 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21">
         <f>COUNTIF($D$2:$D$1315,F21)</f>
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="I21">
         <v>17</v>
       </c>
       <c r="J21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="L21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M21">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($C$2:$C$1315,5,$D$2:$D$1315,$F21)</f>
         <v>0</v>
       </c>
       <c r="N21" s="5">
-        <f t="shared" si="1"/>
+        <f>M21/$M$39</f>
         <v>0</v>
       </c>
       <c r="P21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($C$2:$C$1315,15,$D$2:$D$1315,$F21)</f>
         <v>3</v>
       </c>
       <c r="R21" s="5">
-        <f t="shared" si="3"/>
-        <v>0.03</v>
+        <f>Q21/$Q$39</f>
+        <v>2.9126213592233011E-2</v>
       </c>
       <c r="T21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U21">
-        <f t="shared" si="4"/>
+        <f>COUNTIFS($C$2:$C$1315,25,$D$2:$D$1315,$F21)</f>
         <v>8</v>
       </c>
       <c r="V21" s="5">
-        <f t="shared" si="5"/>
-        <v>6.2992125984251968E-2</v>
+        <f>U21/$U$39</f>
+        <v>6.1068702290076333E-2</v>
       </c>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.25">
@@ -4609,51 +4895,51 @@
         <v>10</v>
       </c>
       <c r="F22">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G22">
         <f>COUNTIF($D$2:$D$1315,F22)</f>
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="I22">
         <v>18</v>
       </c>
       <c r="J22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="L22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M22">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($C$2:$C$1315,5,$D$2:$D$1315,$F22)</f>
         <v>10</v>
       </c>
       <c r="N22" s="5">
-        <f t="shared" si="1"/>
-        <v>2.8248587570621469E-2</v>
+        <f>M22/$M$39</f>
+        <v>2.7472527472527472E-2</v>
       </c>
       <c r="P22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($C$2:$C$1315,15,$D$2:$D$1315,$F22)</f>
         <v>3</v>
       </c>
       <c r="R22" s="5">
-        <f t="shared" si="3"/>
-        <v>0.03</v>
+        <f>Q22/$Q$39</f>
+        <v>2.9126213592233011E-2</v>
       </c>
       <c r="T22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U22">
-        <f t="shared" si="4"/>
+        <f>COUNTIFS($C$2:$C$1315,25,$D$2:$D$1315,$F22)</f>
         <v>5</v>
       </c>
       <c r="V22" s="5">
-        <f t="shared" si="5"/>
-        <v>3.937007874015748E-2</v>
+        <f>U22/$U$39</f>
+        <v>3.8167938931297711E-2</v>
       </c>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.25">
@@ -4667,51 +4953,51 @@
         <v>1</v>
       </c>
       <c r="F23">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G23">
         <f>COUNTIF($D$2:$D$1315,F23)</f>
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="I23">
         <v>19</v>
       </c>
       <c r="J23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="L23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M23">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($C$2:$C$1315,5,$D$2:$D$1315,$F23)</f>
         <v>11</v>
       </c>
       <c r="N23" s="5">
-        <f t="shared" si="1"/>
-        <v>3.1073446327683617E-2</v>
+        <f>M23/$M$39</f>
+        <v>3.021978021978022E-2</v>
       </c>
       <c r="P23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($C$2:$C$1315,15,$D$2:$D$1315,$F23)</f>
         <v>10</v>
       </c>
       <c r="R23" s="5">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
+        <f>Q23/$Q$39</f>
+        <v>9.7087378640776698E-2</v>
       </c>
       <c r="T23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="U23">
-        <f t="shared" si="4"/>
+        <f>COUNTIFS($C$2:$C$1315,25,$D$2:$D$1315,$F23)</f>
         <v>9</v>
       </c>
       <c r="V23" s="5">
-        <f t="shared" si="5"/>
-        <v>7.0866141732283464E-2</v>
+        <f>U23/$U$39</f>
+        <v>6.8702290076335881E-2</v>
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.25">
@@ -4725,51 +5011,51 @@
         <v>6</v>
       </c>
       <c r="F24">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G24">
         <f>COUNTIF($D$2:$D$1315,F24)</f>
-        <v>47</v>
+        <v>113</v>
       </c>
       <c r="I24">
         <v>20</v>
       </c>
       <c r="J24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="L24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M24">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($C$2:$C$1315,5,$D$2:$D$1315,$F24)</f>
         <v>34</v>
       </c>
       <c r="N24" s="5">
-        <f t="shared" si="1"/>
-        <v>9.6045197740112997E-2</v>
+        <f>M24/$M$39</f>
+        <v>9.3406593406593408E-2</v>
       </c>
       <c r="P24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($C$2:$C$1315,15,$D$2:$D$1315,$F24)</f>
         <v>16</v>
       </c>
       <c r="R24" s="5">
-        <f t="shared" si="3"/>
-        <v>0.16</v>
+        <f>Q24/$Q$39</f>
+        <v>0.1553398058252427</v>
       </c>
       <c r="T24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U24">
-        <f t="shared" si="4"/>
+        <f>COUNTIFS($C$2:$C$1315,25,$D$2:$D$1315,$F24)</f>
         <v>9</v>
       </c>
       <c r="V24" s="5">
-        <f t="shared" si="5"/>
-        <v>7.0866141732283464E-2</v>
+        <f>U24/$U$39</f>
+        <v>6.8702290076335881E-2</v>
       </c>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
@@ -4783,51 +5069,51 @@
         <v>2</v>
       </c>
       <c r="F25">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G25">
         <f>COUNTIF($D$2:$D$1315,F25)</f>
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="I25">
         <v>21</v>
       </c>
       <c r="J25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="L25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M25">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($C$2:$C$1315,5,$D$2:$D$1315,$F25)</f>
         <v>18</v>
       </c>
       <c r="N25" s="5">
-        <f t="shared" si="1"/>
-        <v>5.0847457627118647E-2</v>
+        <f>M25/$M$39</f>
+        <v>4.9450549450549448E-2</v>
       </c>
       <c r="P25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($C$2:$C$1315,15,$D$2:$D$1315,$F25)</f>
         <v>1</v>
       </c>
       <c r="R25" s="5">
-        <f t="shared" si="3"/>
-        <v>0.01</v>
+        <f>Q25/$Q$39</f>
+        <v>9.7087378640776691E-3</v>
       </c>
       <c r="T25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="U25">
-        <f t="shared" si="4"/>
+        <f>COUNTIFS($C$2:$C$1315,25,$D$2:$D$1315,$F25)</f>
         <v>3</v>
       </c>
       <c r="V25" s="5">
-        <f t="shared" si="5"/>
-        <v>2.3622047244094488E-2</v>
+        <f>U25/$U$39</f>
+        <v>2.2900763358778626E-2</v>
       </c>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.25">
@@ -4841,51 +5127,51 @@
         <v>29</v>
       </c>
       <c r="F26">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G26">
         <f>COUNTIF($D$2:$D$1315,F26)</f>
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="I26">
         <v>22</v>
       </c>
       <c r="J26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="L26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M26">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($C$2:$C$1315,5,$D$2:$D$1315,$F26)</f>
         <v>0</v>
       </c>
       <c r="N26" s="5">
-        <f t="shared" si="1"/>
+        <f>M26/$M$39</f>
         <v>0</v>
       </c>
       <c r="P26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($C$2:$C$1315,15,$D$2:$D$1315,$F26)</f>
         <v>0</v>
       </c>
       <c r="R26" s="5">
-        <f t="shared" si="3"/>
+        <f>Q26/$Q$39</f>
         <v>0</v>
       </c>
       <c r="T26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U26">
-        <f t="shared" si="4"/>
+        <f>COUNTIFS($C$2:$C$1315,25,$D$2:$D$1315,$F26)</f>
         <v>2</v>
       </c>
       <c r="V26" s="5">
-        <f t="shared" si="5"/>
-        <v>1.5748031496062992E-2</v>
+        <f>U26/$U$39</f>
+        <v>1.5267175572519083E-2</v>
       </c>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
@@ -4899,51 +5185,51 @@
         <v>16</v>
       </c>
       <c r="F27">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G27">
         <f>COUNTIF($D$2:$D$1315,F27)</f>
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="I27">
         <v>23</v>
       </c>
       <c r="J27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="L27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M27">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($C$2:$C$1315,5,$D$2:$D$1315,$F27)</f>
         <v>15</v>
       </c>
       <c r="N27" s="5">
-        <f t="shared" si="1"/>
-        <v>4.2372881355932202E-2</v>
+        <f>M27/$M$39</f>
+        <v>4.1208791208791208E-2</v>
       </c>
       <c r="P27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($C$2:$C$1315,15,$D$2:$D$1315,$F27)</f>
         <v>3</v>
       </c>
       <c r="R27" s="5">
-        <f t="shared" si="3"/>
-        <v>0.03</v>
+        <f>Q27/$Q$39</f>
+        <v>2.9126213592233011E-2</v>
       </c>
       <c r="T27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="U27">
-        <f t="shared" si="4"/>
+        <f>COUNTIFS($C$2:$C$1315,25,$D$2:$D$1315,$F27)</f>
         <v>5</v>
       </c>
       <c r="V27" s="5">
-        <f t="shared" si="5"/>
-        <v>3.937007874015748E-2</v>
+        <f>U27/$U$39</f>
+        <v>3.8167938931297711E-2</v>
       </c>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.25">
@@ -4957,51 +5243,51 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G28">
         <f>COUNTIF($D$2:$D$1315,F28)</f>
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="I28">
         <v>24</v>
       </c>
       <c r="J28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="L28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="M28">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($C$2:$C$1315,5,$D$2:$D$1315,$F28)</f>
         <v>7</v>
       </c>
       <c r="N28" s="5">
-        <f t="shared" si="1"/>
-        <v>1.977401129943503E-2</v>
+        <f>M28/$M$39</f>
+        <v>1.9230769230769232E-2</v>
       </c>
       <c r="P28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($C$2:$C$1315,15,$D$2:$D$1315,$F28)</f>
         <v>0</v>
       </c>
       <c r="R28" s="5">
-        <f t="shared" si="3"/>
+        <f>Q28/$Q$39</f>
         <v>0</v>
       </c>
       <c r="T28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U28">
-        <f t="shared" si="4"/>
+        <f>COUNTIFS($C$2:$C$1315,25,$D$2:$D$1315,$F28)</f>
         <v>1</v>
       </c>
       <c r="V28" s="5">
-        <f t="shared" si="5"/>
-        <v>7.874015748031496E-3</v>
+        <f>U28/$U$39</f>
+        <v>7.6335877862595417E-3</v>
       </c>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
@@ -5015,51 +5301,51 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G29">
         <f>COUNTIF($D$2:$D$1315,F29)</f>
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I29">
         <v>25</v>
       </c>
       <c r="J29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>131</v>
       </c>
       <c r="L29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M29">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($C$2:$C$1315,5,$D$2:$D$1315,$F29)</f>
         <v>8</v>
       </c>
       <c r="N29" s="5">
-        <f t="shared" si="1"/>
-        <v>2.2598870056497175E-2</v>
+        <f>M29/$M$39</f>
+        <v>2.197802197802198E-2</v>
       </c>
       <c r="P29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($C$2:$C$1315,15,$D$2:$D$1315,$F29)</f>
         <v>2</v>
       </c>
       <c r="R29" s="5">
-        <f t="shared" si="3"/>
-        <v>0.02</v>
+        <f>Q29/$Q$39</f>
+        <v>1.9417475728155338E-2</v>
       </c>
       <c r="T29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="U29">
-        <f t="shared" si="4"/>
+        <f>COUNTIFS($C$2:$C$1315,25,$D$2:$D$1315,$F29)</f>
         <v>4</v>
       </c>
       <c r="V29" s="5">
-        <f t="shared" si="5"/>
-        <v>3.1496062992125984E-2</v>
+        <f>U29/$U$39</f>
+        <v>3.0534351145038167E-2</v>
       </c>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.25">
@@ -5073,51 +5359,51 @@
         <v>8</v>
       </c>
       <c r="F30">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G30">
         <f>COUNTIF($D$2:$D$1315,F30)</f>
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I30">
         <v>26</v>
       </c>
       <c r="J30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="L30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M30">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($C$2:$C$1315,5,$D$2:$D$1315,$F30)</f>
         <v>1</v>
       </c>
       <c r="N30" s="5">
-        <f t="shared" si="1"/>
-        <v>2.8248587570621469E-3</v>
+        <f>M30/$M$39</f>
+        <v>2.7472527472527475E-3</v>
       </c>
       <c r="P30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($C$2:$C$1315,15,$D$2:$D$1315,$F30)</f>
         <v>6</v>
       </c>
       <c r="R30" s="5">
-        <f t="shared" si="3"/>
-        <v>0.06</v>
+        <f>Q30/$Q$39</f>
+        <v>5.8252427184466021E-2</v>
       </c>
       <c r="T30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="U30">
-        <f t="shared" si="4"/>
+        <f>COUNTIFS($C$2:$C$1315,25,$D$2:$D$1315,$F30)</f>
         <v>4</v>
       </c>
       <c r="V30" s="5">
-        <f t="shared" si="5"/>
-        <v>3.1496062992125984E-2</v>
+        <f>U30/$U$39</f>
+        <v>3.0534351145038167E-2</v>
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
@@ -5131,50 +5417,50 @@
         <v>5</v>
       </c>
       <c r="F31">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G31">
         <f>COUNTIF($D$2:$D$1315,F31)</f>
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>27</v>
       </c>
       <c r="J31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M31">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($C$2:$C$1315,5,$D$2:$D$1315,$F31)</f>
         <v>0</v>
       </c>
       <c r="N31" s="5">
-        <f t="shared" si="1"/>
+        <f>M31/$M$39</f>
         <v>0</v>
       </c>
       <c r="P31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($C$2:$C$1315,15,$D$2:$D$1315,$F31)</f>
         <v>0</v>
       </c>
       <c r="R31" s="5">
-        <f t="shared" si="3"/>
+        <f>Q31/$Q$39</f>
         <v>0</v>
       </c>
       <c r="T31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="U31">
-        <f t="shared" si="4"/>
+        <f>COUNTIFS($C$2:$C$1315,25,$D$2:$D$1315,$F31)</f>
         <v>0</v>
       </c>
       <c r="V31" s="5">
-        <f t="shared" si="5"/>
+        <f>U31/$U$39</f>
         <v>0</v>
       </c>
     </row>
@@ -5189,51 +5475,51 @@
         <v>21</v>
       </c>
       <c r="F32">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G32">
         <f>COUNTIF($D$2:$D$1315,F32)</f>
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="I32">
         <v>28</v>
       </c>
       <c r="J32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="L32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M32">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($C$2:$C$1315,5,$D$2:$D$1315,$F32)</f>
         <v>3</v>
       </c>
       <c r="N32" s="5">
-        <f t="shared" si="1"/>
-        <v>8.4745762711864406E-3</v>
+        <f>M32/$M$39</f>
+        <v>8.241758241758242E-3</v>
       </c>
       <c r="P32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($C$2:$C$1315,15,$D$2:$D$1315,$F32)</f>
         <v>2</v>
       </c>
       <c r="R32" s="5">
-        <f t="shared" si="3"/>
-        <v>0.02</v>
+        <f>Q32/$Q$39</f>
+        <v>1.9417475728155338E-2</v>
       </c>
       <c r="T32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U32">
-        <f t="shared" si="4"/>
+        <f>COUNTIFS($C$2:$C$1315,25,$D$2:$D$1315,$F32)</f>
         <v>3</v>
       </c>
       <c r="V32" s="5">
-        <f t="shared" si="5"/>
-        <v>2.3622047244094488E-2</v>
+        <f>U32/$U$39</f>
+        <v>2.2900763358778626E-2</v>
       </c>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
@@ -5247,51 +5533,51 @@
         <v>19</v>
       </c>
       <c r="F33">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G33">
         <f>COUNTIF($D$2:$D$1315,F33)</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="I33">
         <v>29</v>
       </c>
       <c r="J33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="L33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M33">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($C$2:$C$1315,5,$D$2:$D$1315,$F33)</f>
         <v>5</v>
       </c>
       <c r="N33" s="5">
-        <f t="shared" si="1"/>
-        <v>1.4124293785310734E-2</v>
+        <f>M33/$M$39</f>
+        <v>1.3736263736263736E-2</v>
       </c>
       <c r="P33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($C$2:$C$1315,15,$D$2:$D$1315,$F33)</f>
         <v>4</v>
       </c>
       <c r="R33" s="5">
-        <f t="shared" si="3"/>
-        <v>0.04</v>
+        <f>Q33/$Q$39</f>
+        <v>3.8834951456310676E-2</v>
       </c>
       <c r="T33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U33">
-        <f t="shared" si="4"/>
+        <f>COUNTIFS($C$2:$C$1315,25,$D$2:$D$1315,$F33)</f>
         <v>6</v>
       </c>
       <c r="V33" s="5">
-        <f t="shared" si="5"/>
-        <v>4.7244094488188976E-2</v>
+        <f>U33/$U$39</f>
+        <v>4.5801526717557252E-2</v>
       </c>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
@@ -5305,50 +5591,50 @@
         <v>33</v>
       </c>
       <c r="F34">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G34">
         <f>COUNTIF($D$2:$D$1315,F34)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>30</v>
       </c>
       <c r="J34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="L34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M34">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($C$2:$C$1315,5,$D$2:$D$1315,$F34)</f>
         <v>0</v>
       </c>
       <c r="N34" s="5">
-        <f t="shared" si="1"/>
+        <f>M34/$M$39</f>
         <v>0</v>
       </c>
       <c r="P34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($C$2:$C$1315,15,$D$2:$D$1315,$F34)</f>
         <v>0</v>
       </c>
       <c r="R34" s="5">
-        <f t="shared" si="3"/>
+        <f>Q34/$Q$39</f>
         <v>0</v>
       </c>
       <c r="T34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="U34">
-        <f t="shared" si="4"/>
+        <f>COUNTIFS($C$2:$C$1315,25,$D$2:$D$1315,$F34)</f>
         <v>0</v>
       </c>
       <c r="V34" s="5">
-        <f t="shared" si="5"/>
+        <f>U34/$U$39</f>
         <v>0</v>
       </c>
     </row>
@@ -5363,50 +5649,50 @@
         <v>19</v>
       </c>
       <c r="F35">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G35">
         <f>COUNTIF($D$2:$D$1315,F35)</f>
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="I35">
         <v>31</v>
       </c>
       <c r="J35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="L35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M35">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($C$2:$C$1315,5,$D$2:$D$1315,$F35)</f>
         <v>0</v>
       </c>
       <c r="N35" s="5">
-        <f t="shared" si="1"/>
+        <f>M35/$M$39</f>
         <v>0</v>
       </c>
       <c r="P35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($C$2:$C$1315,15,$D$2:$D$1315,$F35)</f>
         <v>3</v>
       </c>
       <c r="R35" s="5">
-        <f t="shared" si="3"/>
-        <v>0.03</v>
+        <f>Q35/$Q$39</f>
+        <v>2.9126213592233011E-2</v>
       </c>
       <c r="T35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="U35">
-        <f t="shared" si="4"/>
+        <f>COUNTIFS($C$2:$C$1315,25,$D$2:$D$1315,$F35)</f>
         <v>0</v>
       </c>
       <c r="V35" s="5">
-        <f t="shared" si="5"/>
+        <f>U35/$U$39</f>
         <v>0</v>
       </c>
     </row>
@@ -5421,51 +5707,51 @@
         <v>12</v>
       </c>
       <c r="F36">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G36">
         <f>COUNTIF($D$2:$D$1315,F36)</f>
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I36">
         <v>32</v>
       </c>
       <c r="J36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="L36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M36">
-        <f t="shared" si="0"/>
+        <f>COUNTIFS($C$2:$C$1315,5,$D$2:$D$1315,$F36)</f>
         <v>9</v>
       </c>
       <c r="N36" s="5">
-        <f t="shared" si="1"/>
-        <v>2.5423728813559324E-2</v>
+        <f>M36/$M$39</f>
+        <v>2.4725274725274724E-2</v>
       </c>
       <c r="P36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="2"/>
+        <f>COUNTIFS($C$2:$C$1315,15,$D$2:$D$1315,$F36)</f>
         <v>4</v>
       </c>
       <c r="R36" s="5">
-        <f t="shared" si="3"/>
-        <v>0.04</v>
+        <f>Q36/$Q$39</f>
+        <v>3.8834951456310676E-2</v>
       </c>
       <c r="T36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="U36">
-        <f t="shared" si="4"/>
+        <f>COUNTIFS($C$2:$C$1315,25,$D$2:$D$1315,$F36)</f>
         <v>3</v>
       </c>
       <c r="V36" s="5">
-        <f t="shared" si="5"/>
-        <v>2.3622047244094488E-2</v>
+        <f>U36/$U$39</f>
+        <v>2.2900763358778626E-2</v>
       </c>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
@@ -5478,6 +5764,46 @@
       <c r="D37">
         <v>25</v>
       </c>
+      <c r="F37">
+        <v>33</v>
+      </c>
+      <c r="G37">
+        <f>COUNTIF($D$2:$D$1315,F37)</f>
+        <v>35</v>
+      </c>
+      <c r="L37" t="s">
+        <v>100</v>
+      </c>
+      <c r="M37">
+        <f>COUNTIFS($C$2:$C$1315,5,$D$2:$D$1315,$F37)</f>
+        <v>10</v>
+      </c>
+      <c r="N37" s="5">
+        <f>M37/$M$39</f>
+        <v>2.7472527472527472E-2</v>
+      </c>
+      <c r="P37" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q37">
+        <f>COUNTIFS($C$2:$C$1315,15,$D$2:$D$1315,$F37)</f>
+        <v>3</v>
+      </c>
+      <c r="R37" s="5">
+        <f>Q37/$Q$39</f>
+        <v>2.9126213592233011E-2</v>
+      </c>
+      <c r="T37" t="s">
+        <v>100</v>
+      </c>
+      <c r="U37">
+        <f>COUNTIFS($C$2:$C$1315,25,$D$2:$D$1315,$F37)</f>
+        <v>4</v>
+      </c>
+      <c r="V37" s="5">
+        <f>U37/$U$39</f>
+        <v>3.0534351145038167E-2</v>
+      </c>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38">
@@ -5489,27 +5815,6 @@
       <c r="D38">
         <v>26</v>
       </c>
-      <c r="L38" t="s">
-        <v>59</v>
-      </c>
-      <c r="M38">
-        <f>SUM(M4:M36)</f>
-        <v>354</v>
-      </c>
-      <c r="P38" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q38">
-        <f>SUM(Q4:Q36)</f>
-        <v>100</v>
-      </c>
-      <c r="T38" t="s">
-        <v>59</v>
-      </c>
-      <c r="U38">
-        <f>SUM(U4:U36)</f>
-        <v>127</v>
-      </c>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39">
@@ -5520,6 +5825,27 @@
       </c>
       <c r="D39">
         <v>7</v>
+      </c>
+      <c r="L39" t="s">
+        <v>59</v>
+      </c>
+      <c r="M39">
+        <f>SUM(M4:M37)</f>
+        <v>364</v>
+      </c>
+      <c r="P39" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q39">
+        <f>SUM(Q4:Q37)</f>
+        <v>103</v>
+      </c>
+      <c r="T39" t="s">
+        <v>59</v>
+      </c>
+      <c r="U39">
+        <f>SUM(U4:U37)</f>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.25">
@@ -19563,7 +19889,7 @@
     <mergeCell ref="L1:V1"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="G4:G36">
+  <conditionalFormatting sqref="G4:G37">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -19575,7 +19901,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J36">
+  <conditionalFormatting sqref="J4:J37">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -19587,7 +19913,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M4:M36">
+  <conditionalFormatting sqref="M4:M37">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -19599,7 +19925,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U4:U36">
+  <conditionalFormatting sqref="U4:U37">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -19611,7 +19937,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q4:Q36">
+  <conditionalFormatting sqref="Q4:Q37">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -19628,6 +19954,2497 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08500034-7D42-4F04-B542-6EA7C11F2000}">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="B1:M320"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" t="s">
+        <v>109</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>33</v>
+      </c>
+      <c r="M3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="G4">
+        <v>40</v>
+      </c>
+      <c r="H4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>7</v>
+      </c>
+      <c r="M4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>41</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I5" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>27</v>
+      </c>
+      <c r="M5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>52</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>52</v>
+      </c>
+      <c r="H6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>27</v>
+      </c>
+      <c r="M6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>76</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>76</v>
+      </c>
+      <c r="H7" t="s">
+        <v>118</v>
+      </c>
+      <c r="I7" t="s">
+        <v>106</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>16</v>
+      </c>
+      <c r="M7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>95</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>95</v>
+      </c>
+      <c r="H8" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" t="s">
+        <v>109</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>27</v>
+      </c>
+      <c r="M8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>101</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>101</v>
+      </c>
+      <c r="H9" t="s">
+        <v>122</v>
+      </c>
+      <c r="I9" t="s">
+        <v>123</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>9</v>
+      </c>
+      <c r="M9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>103</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>103</v>
+      </c>
+      <c r="H10" t="s">
+        <v>125</v>
+      </c>
+      <c r="I10" t="s">
+        <v>126</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>5</v>
+      </c>
+      <c r="L10">
+        <v>18</v>
+      </c>
+      <c r="M10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>123</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>123</v>
+      </c>
+      <c r="H11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>27</v>
+      </c>
+      <c r="M11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>145</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>145</v>
+      </c>
+      <c r="H12" t="s">
+        <v>129</v>
+      </c>
+      <c r="I12" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>43</v>
+      </c>
+      <c r="M12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>151</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>151</v>
+      </c>
+      <c r="H13" t="s">
+        <v>108</v>
+      </c>
+      <c r="I13" t="s">
+        <v>112</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>33</v>
+      </c>
+      <c r="M13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>170</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>170</v>
+      </c>
+      <c r="H14" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>27</v>
+      </c>
+      <c r="M14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>203</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>203</v>
+      </c>
+      <c r="H15" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <v>9</v>
+      </c>
+      <c r="M15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>204</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>204</v>
+      </c>
+      <c r="H16" t="s">
+        <v>136</v>
+      </c>
+      <c r="I16" t="s">
+        <v>106</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <v>42</v>
+      </c>
+      <c r="M16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>229</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="G17">
+        <v>229</v>
+      </c>
+      <c r="H17" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" t="s">
+        <v>138</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <v>7</v>
+      </c>
+      <c r="M17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>245</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <v>245</v>
+      </c>
+      <c r="H18" t="s">
+        <v>105</v>
+      </c>
+      <c r="I18" t="s">
+        <v>140</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <v>27</v>
+      </c>
+      <c r="M18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>265</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>265</v>
+      </c>
+      <c r="H19" t="s">
+        <v>108</v>
+      </c>
+      <c r="I19" t="s">
+        <v>142</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
+      <c r="L19">
+        <v>33</v>
+      </c>
+      <c r="M19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>272</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>272</v>
+      </c>
+      <c r="H20" t="s">
+        <v>122</v>
+      </c>
+      <c r="I20" t="s">
+        <v>109</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <v>9</v>
+      </c>
+      <c r="M20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>278</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>278</v>
+      </c>
+      <c r="H21" t="s">
+        <v>136</v>
+      </c>
+      <c r="I21" t="s">
+        <v>116</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21">
+        <v>42</v>
+      </c>
+      <c r="M21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>279</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>279</v>
+      </c>
+      <c r="H22" t="s">
+        <v>105</v>
+      </c>
+      <c r="I22" t="s">
+        <v>146</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>5</v>
+      </c>
+      <c r="L22">
+        <v>27</v>
+      </c>
+      <c r="M22" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>287</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>287</v>
+      </c>
+      <c r="H23" t="s">
+        <v>136</v>
+      </c>
+      <c r="I23" t="s">
+        <v>109</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>5</v>
+      </c>
+      <c r="L23">
+        <v>42</v>
+      </c>
+      <c r="M23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>344</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>344</v>
+      </c>
+      <c r="H24" t="s">
+        <v>136</v>
+      </c>
+      <c r="I24" t="s">
+        <v>149</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>5</v>
+      </c>
+      <c r="L24">
+        <v>42</v>
+      </c>
+      <c r="M24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>425</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+      <c r="G25">
+        <v>425</v>
+      </c>
+      <c r="H25" t="s">
+        <v>151</v>
+      </c>
+      <c r="I25" t="s">
+        <v>109</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>5</v>
+      </c>
+      <c r="L25">
+        <v>47</v>
+      </c>
+      <c r="M25" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>458</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="G26">
+        <v>458</v>
+      </c>
+      <c r="H26" t="s">
+        <v>108</v>
+      </c>
+      <c r="I26" t="s">
+        <v>116</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>5</v>
+      </c>
+      <c r="L26">
+        <v>33</v>
+      </c>
+      <c r="M26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>469</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <v>469</v>
+      </c>
+      <c r="H27" t="s">
+        <v>105</v>
+      </c>
+      <c r="I27" t="s">
+        <v>123</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>5</v>
+      </c>
+      <c r="L27">
+        <v>27</v>
+      </c>
+      <c r="M27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>474</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="G28">
+        <v>474</v>
+      </c>
+      <c r="H28" t="s">
+        <v>105</v>
+      </c>
+      <c r="I28" t="s">
+        <v>155</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>5</v>
+      </c>
+      <c r="L28">
+        <v>27</v>
+      </c>
+      <c r="M28" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>508</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <v>508</v>
+      </c>
+      <c r="H29" t="s">
+        <v>125</v>
+      </c>
+      <c r="I29" t="s">
+        <v>130</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>5</v>
+      </c>
+      <c r="L29">
+        <v>18</v>
+      </c>
+      <c r="M29" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>532</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>532</v>
+      </c>
+      <c r="H30" t="s">
+        <v>151</v>
+      </c>
+      <c r="I30" t="s">
+        <v>123</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>5</v>
+      </c>
+      <c r="L30">
+        <v>47</v>
+      </c>
+      <c r="M30" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>627</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>627</v>
+      </c>
+      <c r="H31" t="s">
+        <v>105</v>
+      </c>
+      <c r="I31" t="s">
+        <v>142</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31">
+        <v>5</v>
+      </c>
+      <c r="L31">
+        <v>27</v>
+      </c>
+      <c r="M31" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>633</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>5</v>
+      </c>
+      <c r="G32">
+        <v>633</v>
+      </c>
+      <c r="H32" t="s">
+        <v>118</v>
+      </c>
+      <c r="I32" t="s">
+        <v>160</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>5</v>
+      </c>
+      <c r="L32">
+        <v>16</v>
+      </c>
+      <c r="M32" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>636</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="G33">
+        <v>636</v>
+      </c>
+      <c r="H33" t="s">
+        <v>125</v>
+      </c>
+      <c r="I33" t="s">
+        <v>162</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>5</v>
+      </c>
+      <c r="L33">
+        <v>18</v>
+      </c>
+      <c r="M33" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>705</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="G34">
+        <v>705</v>
+      </c>
+      <c r="H34" t="s">
+        <v>118</v>
+      </c>
+      <c r="I34" t="s">
+        <v>142</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>5</v>
+      </c>
+      <c r="L34">
+        <v>16</v>
+      </c>
+      <c r="M34" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>713</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="G35">
+        <v>713</v>
+      </c>
+      <c r="H35" t="s">
+        <v>122</v>
+      </c>
+      <c r="I35" t="s">
+        <v>142</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>5</v>
+      </c>
+      <c r="L35">
+        <v>9</v>
+      </c>
+      <c r="M35" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>716</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="G36">
+        <v>716</v>
+      </c>
+      <c r="H36" t="s">
+        <v>118</v>
+      </c>
+      <c r="I36" t="s">
+        <v>166</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>5</v>
+      </c>
+      <c r="L36">
+        <v>16</v>
+      </c>
+      <c r="M36" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>754</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="G37">
+        <v>754</v>
+      </c>
+      <c r="H37" t="s">
+        <v>136</v>
+      </c>
+      <c r="I37" t="s">
+        <v>114</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>5</v>
+      </c>
+      <c r="L37">
+        <v>42</v>
+      </c>
+      <c r="M37" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>824</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <v>824</v>
+      </c>
+      <c r="H38" t="s">
+        <v>105</v>
+      </c>
+      <c r="I38" t="s">
+        <v>169</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>5</v>
+      </c>
+      <c r="L38">
+        <v>27</v>
+      </c>
+      <c r="M38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>827</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="G39">
+        <v>827</v>
+      </c>
+      <c r="H39" t="s">
+        <v>136</v>
+      </c>
+      <c r="I39" t="s">
+        <v>171</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>5</v>
+      </c>
+      <c r="L39">
+        <v>42</v>
+      </c>
+      <c r="M39" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>891</v>
+      </c>
+      <c r="C40">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="G40">
+        <v>891</v>
+      </c>
+      <c r="H40" t="s">
+        <v>111</v>
+      </c>
+      <c r="I40" t="s">
+        <v>109</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>5</v>
+      </c>
+      <c r="L40">
+        <v>7</v>
+      </c>
+      <c r="M40" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>920</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="G41">
+        <v>920</v>
+      </c>
+      <c r="H41" t="s">
+        <v>118</v>
+      </c>
+      <c r="I41" t="s">
+        <v>174</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>5</v>
+      </c>
+      <c r="L41">
+        <v>16</v>
+      </c>
+      <c r="M41" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>993</v>
+      </c>
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="G42">
+        <v>993</v>
+      </c>
+      <c r="H42" t="s">
+        <v>129</v>
+      </c>
+      <c r="I42" t="s">
+        <v>109</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>5</v>
+      </c>
+      <c r="L42">
+        <v>43</v>
+      </c>
+      <c r="M42" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>996</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="G43">
+        <v>996</v>
+      </c>
+      <c r="H43" t="s">
+        <v>118</v>
+      </c>
+      <c r="I43" t="s">
+        <v>138</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>5</v>
+      </c>
+      <c r="L43">
+        <v>16</v>
+      </c>
+      <c r="M43" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>1017</v>
+      </c>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="G44">
+        <v>1017</v>
+      </c>
+      <c r="H44" t="s">
+        <v>136</v>
+      </c>
+      <c r="I44" t="s">
+        <v>112</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>5</v>
+      </c>
+      <c r="L44">
+        <v>42</v>
+      </c>
+      <c r="M44" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>1102</v>
+      </c>
+      <c r="C45">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="G45">
+        <v>1102</v>
+      </c>
+      <c r="H45" t="s">
+        <v>108</v>
+      </c>
+      <c r="I45" t="s">
+        <v>123</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>5</v>
+      </c>
+      <c r="L45">
+        <v>33</v>
+      </c>
+      <c r="M45" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>1121</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="G46">
+        <v>1121</v>
+      </c>
+      <c r="H46" t="s">
+        <v>105</v>
+      </c>
+      <c r="I46" t="s">
+        <v>180</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>5</v>
+      </c>
+      <c r="L46">
+        <v>27</v>
+      </c>
+      <c r="M46" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>1133</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="G47">
+        <v>1133</v>
+      </c>
+      <c r="H47" t="s">
+        <v>136</v>
+      </c>
+      <c r="I47" t="s">
+        <v>182</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>5</v>
+      </c>
+      <c r="L47">
+        <v>42</v>
+      </c>
+      <c r="M47" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>1148</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="G48">
+        <v>1148</v>
+      </c>
+      <c r="H48" t="s">
+        <v>136</v>
+      </c>
+      <c r="I48" t="s">
+        <v>169</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>5</v>
+      </c>
+      <c r="L48">
+        <v>42</v>
+      </c>
+      <c r="M48" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>1188</v>
+      </c>
+      <c r="C49">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="G49">
+        <v>1188</v>
+      </c>
+      <c r="H49" t="s">
+        <v>108</v>
+      </c>
+      <c r="I49" t="s">
+        <v>169</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>5</v>
+      </c>
+      <c r="L49">
+        <v>33</v>
+      </c>
+      <c r="M49" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>1198</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="G50">
+        <v>1198</v>
+      </c>
+      <c r="H50" t="s">
+        <v>105</v>
+      </c>
+      <c r="I50" t="s">
+        <v>186</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>5</v>
+      </c>
+      <c r="L50">
+        <v>27</v>
+      </c>
+      <c r="M50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>1204</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="G51">
+        <v>1204</v>
+      </c>
+      <c r="H51" t="s">
+        <v>136</v>
+      </c>
+      <c r="I51" t="s">
+        <v>188</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>5</v>
+      </c>
+      <c r="L51">
+        <v>42</v>
+      </c>
+      <c r="M51" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>1207</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="G52">
+        <v>1207</v>
+      </c>
+      <c r="H52" t="s">
+        <v>111</v>
+      </c>
+      <c r="I52" t="s">
+        <v>116</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>5</v>
+      </c>
+      <c r="L52">
+        <v>7</v>
+      </c>
+      <c r="M52" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>1213</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="G53">
+        <v>1213</v>
+      </c>
+      <c r="H53" t="s">
+        <v>125</v>
+      </c>
+      <c r="I53" t="s">
+        <v>191</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>5</v>
+      </c>
+      <c r="L53">
+        <v>18</v>
+      </c>
+      <c r="M53" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>1227</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="G54">
+        <v>1227</v>
+      </c>
+      <c r="H54" t="s">
+        <v>118</v>
+      </c>
+      <c r="I54" t="s">
+        <v>123</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>5</v>
+      </c>
+      <c r="L54">
+        <v>16</v>
+      </c>
+      <c r="M54" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>1232</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="G55">
+        <v>1232</v>
+      </c>
+      <c r="H55" t="s">
+        <v>111</v>
+      </c>
+      <c r="I55" t="s">
+        <v>123</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>5</v>
+      </c>
+      <c r="L55">
+        <v>7</v>
+      </c>
+      <c r="M55" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>1235</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="G56">
+        <v>1235</v>
+      </c>
+      <c r="H56" t="s">
+        <v>136</v>
+      </c>
+      <c r="I56" t="s">
+        <v>180</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>5</v>
+      </c>
+      <c r="L56">
+        <v>42</v>
+      </c>
+      <c r="M56" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>1246</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="G57">
+        <v>1246</v>
+      </c>
+      <c r="H57" t="s">
+        <v>125</v>
+      </c>
+      <c r="I57" t="s">
+        <v>195</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>5</v>
+      </c>
+      <c r="L57">
+        <v>18</v>
+      </c>
+      <c r="M57" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>1288</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="G58">
+        <v>1288</v>
+      </c>
+      <c r="H58" t="s">
+        <v>118</v>
+      </c>
+      <c r="I58" t="s">
+        <v>133</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>5</v>
+      </c>
+      <c r="L58">
+        <v>16</v>
+      </c>
+      <c r="M58" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B229" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B230" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B231" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B232" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B244" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B245" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B246" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B247" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B248" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B249" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B250" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B251" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B254" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B255" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B257" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B258" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B259" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B260" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B261" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B262" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B263" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B264" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B265" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B266" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B267" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B268" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B269" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B270" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B271" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B272" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B273" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B274" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B276" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B277" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B278" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B279" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B280" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B281" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B282" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B283" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B284" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B285" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B286" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B287" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B288" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B289" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B290" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B291" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B292" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B293" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B295" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B296" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B297" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B298" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B299" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B300" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B301" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B302" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B303" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B304" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B305" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B306" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B307" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B308" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B309" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B310" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B311" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B312" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B313" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B314" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B315" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B316" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B317" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B318" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B319" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B320" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57E2792-8E09-4763-BF4A-3C9D49B38C18}">
   <sheetPr>
     <tabColor theme="9" tint="0.39997558519241921"/>
